--- a/biology/Botanique/Callicarpa_kwangtungensis/Callicarpa_kwangtungensis.xlsx
+++ b/biology/Botanique/Callicarpa_kwangtungensis/Callicarpa_kwangtungensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicarpa kwangtungensis est un arbuste de la famille des Verbénacées (ou selon la classification phylogénétique de la famille des Lamiacées).
 Nom chinois : 广东紫珠
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant atteindre 2 m de haut au maximum, au feuillage caduc.
 Les feuilles, opposées, sont lancéolées, très allongées - de 7 à 30 cm de long sur 2 à 5 de large -, de couleur vert clair, aux nervures violines.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire du sud de la Chine : Fujian, Guangdong, Guangxi, Guizhou, Hubei, Hunan, Jiangxi, Yunnan, Zhejiang.
 Elle a comme habitat d'origine des forêts mixtes en moyenne montagne (de 300 à 1 600 m).
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste d'ornement, encore très peu répandu en France. Il résiste à des températures de −12 °C. Il est peu exigeant quant à la qualité du sol.
 </t>
